--- a/LR3/table_1_86.xlsx
+++ b/LR3/table_1_86.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7975667-E5DF-4FDE-978F-7487B7B2E95C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418DBE0-A5D6-4880-AEB3-936AE691CA79}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8E246206-8391-41FC-8113-B31C00FE5EA6}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максмальная сумма, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F1B8E-6157-42BF-84A1-888182C7BF65}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -650,7 +652,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>94.600000000000009</v>
       </c>
       <c r="E4" s="1">

--- a/LR3/table_1_86.xlsx
+++ b/LR3/table_1_86.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418DBE0-A5D6-4880-AEB3-936AE691CA79}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8E246206-8391-41FC-8113-B31C00FE5EA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -537,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F1B8E-6157-42BF-84A1-888182C7BF65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_86.xlsx
+++ b/LR3/table_1_86.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201C7DC-C049-4257-8693-F4D2ACA2636D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -536,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,7 +610,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>94.600000000000009</v>
       </c>
       <c r="E3" s="1">
@@ -623,7 +624,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -651,11 +652,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>94.600000000000009</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6574.7000000000007</v>
       </c>
       <c r="F4" s="2">
@@ -665,39 +666,39 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6574.7000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>94.600000000000009</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6527.4000000000005</v>
       </c>
       <c r="F5" s="2">
@@ -707,39 +708,39 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6527.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6480.1</v>
       </c>
       <c r="F6" s="2">
@@ -749,39 +750,39 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6480.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6432.8</v>
       </c>
       <c r="F7" s="2">
@@ -791,39 +792,39 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6432.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6385.5000000000009</v>
       </c>
       <c r="F8" s="2">
@@ -833,39 +834,39 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6385.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6338.2000000000007</v>
       </c>
       <c r="F9" s="2">
@@ -875,39 +876,39 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6338.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6290.9000000000005</v>
       </c>
       <c r="F10" s="2">
@@ -917,39 +918,39 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6290.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6243.6</v>
       </c>
       <c r="F11" s="2">
@@ -959,39 +960,39 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6243.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6196.3</v>
       </c>
       <c r="F12" s="2">
@@ -1001,39 +1002,39 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6206.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6149.0000000000009</v>
       </c>
       <c r="F13" s="2">
@@ -1043,39 +1044,39 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6169.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6101.7000000000007</v>
       </c>
       <c r="F14" s="2">
@@ -1085,39 +1086,39 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6131.7000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6054.4000000000005</v>
       </c>
       <c r="F15" s="2">
@@ -1127,39 +1128,39 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6094.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6007.1</v>
       </c>
       <c r="F16" s="2">
@@ -1169,39 +1170,39 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6057.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5959.8</v>
       </c>
       <c r="F17" s="2">
@@ -1211,39 +1212,39 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6019.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5912.5000000000009</v>
       </c>
       <c r="F18" s="2">
@@ -1253,39 +1254,39 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5982.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5865.2000000000007</v>
       </c>
       <c r="F19" s="2">
@@ -1295,39 +1296,39 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5945.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5817.9000000000005</v>
       </c>
       <c r="F20" s="2">
@@ -1337,39 +1338,39 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5907.9000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5770.6</v>
       </c>
       <c r="F21" s="2">
@@ -1379,39 +1380,39 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5870.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5723.3</v>
       </c>
       <c r="F22" s="2">
@@ -1421,39 +1422,39 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5833.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5676.0000000000009</v>
       </c>
       <c r="F23" s="2">
@@ -1463,39 +1464,39 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5796.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5628.7000000000007</v>
       </c>
       <c r="F24" s="2">
@@ -1505,39 +1506,39 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5758.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5581.4000000000005</v>
       </c>
       <c r="F25" s="2">
@@ -1547,39 +1548,39 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5721.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5534.1</v>
       </c>
       <c r="F26" s="2">
@@ -1589,39 +1590,39 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5684.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5486.8</v>
       </c>
       <c r="F27" s="2">
@@ -1631,39 +1632,39 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5646.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5439.5000000000009</v>
       </c>
       <c r="F28" s="2">
@@ -1673,39 +1674,39 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5609.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5392.2000000000007</v>
       </c>
       <c r="F29" s="2">
@@ -1715,39 +1716,39 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5572.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5344.9000000000005</v>
       </c>
       <c r="F30" s="2">
@@ -1757,39 +1758,39 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5534.9000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5297.6</v>
       </c>
       <c r="F31" s="2">
@@ -1799,39 +1800,39 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5497.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5250.3</v>
       </c>
       <c r="F32" s="2">
@@ -1841,39 +1842,39 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5460.3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5203.0000000000009</v>
       </c>
       <c r="F33" s="2">
@@ -1883,39 +1884,39 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5423.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>94.600000000000009</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5155.7000000000007</v>
       </c>
       <c r="F34" s="2">
@@ -1925,39 +1926,39 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5385.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$34*0.5</f>
+        <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2554.2000000000003</v>
       </c>
       <c r="F35" s="2">
@@ -1967,39 +1968,39 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2794.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">$D$34*0.5</f>
+        <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2530.5500000000002</v>
       </c>
       <c r="F36" s="2">
@@ -2009,39 +2010,39 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2780.55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2506.9</v>
       </c>
       <c r="F37" s="2">
@@ -2051,39 +2052,39 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2766.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2483.25</v>
       </c>
       <c r="F38" s="2">
@@ -2093,18 +2094,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2753.25</v>
       </c>
     </row>
@@ -2113,8 +2114,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(K3:K38)</f>
-        <v>202298.1</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>202298</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_86.xlsx
+++ b/LR3/table_1_86.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201C7DC-C049-4257-8693-F4D2ACA2636D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB5CD9-1245-4164-B825-D1BDB23F3E0F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,16 +213,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +543,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,35 +608,35 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>A1*1.1</f>
         <v>94.600000000000009</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>6622.0000000000009</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f>E3+J3</f>
         <v>6622.0000000000009</v>
       </c>
@@ -647,36 +649,36 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>D3</f>
         <v>94.600000000000009</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6574.7000000000007</v>
       </c>
-      <c r="F4" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6574.7000000000007</v>
       </c>
@@ -689,36 +691,36 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">D4</f>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>6527.4000000000005</v>
       </c>
-      <c r="F5" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
         <v>6527.4000000000005</v>
       </c>
@@ -731,36 +733,36 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>6480.1</v>
       </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>6480.1</v>
       </c>
@@ -773,36 +775,36 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>6432.8</v>
       </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
         <v>6432.8</v>
       </c>
@@ -815,36 +817,36 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>6385.5000000000009</v>
       </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
         <v>6385.5000000000009</v>
       </c>
@@ -857,36 +859,36 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>6338.2000000000007</v>
       </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>6338.2000000000007</v>
       </c>
@@ -899,36 +901,36 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>6290.9000000000005</v>
       </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
         <v>6290.9000000000005</v>
       </c>
@@ -941,36 +943,36 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>6243.6</v>
       </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
         <v>6243.6</v>
       </c>
@@ -983,36 +985,36 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>6196.3</v>
       </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
         <v>6206.3</v>
       </c>
@@ -1025,36 +1027,36 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>6149.0000000000009</v>
       </c>
-      <c r="F13" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>6169.0000000000009</v>
       </c>
@@ -1067,36 +1069,36 @@
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>6101.7000000000007</v>
       </c>
-      <c r="F14" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>6131.7000000000007</v>
       </c>
@@ -1109,36 +1111,36 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>6054.4000000000005</v>
       </c>
-      <c r="F15" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>6094.4000000000005</v>
       </c>
@@ -1151,36 +1153,36 @@
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>6007.1</v>
       </c>
-      <c r="F16" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="3"/>
         <v>6057.1</v>
       </c>
@@ -1193,36 +1195,36 @@
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>5959.8</v>
       </c>
-      <c r="F17" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
         <v>6019.8</v>
       </c>
@@ -1235,36 +1237,36 @@
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>5912.5000000000009</v>
       </c>
-      <c r="F18" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="3"/>
         <v>5982.5000000000009</v>
       </c>
@@ -1277,36 +1279,36 @@
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>5865.2000000000007</v>
       </c>
-      <c r="F19" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="3"/>
         <v>5945.2000000000007</v>
       </c>
@@ -1319,36 +1321,36 @@
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>5817.9000000000005</v>
       </c>
-      <c r="F20" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="3"/>
         <v>5907.9000000000005</v>
       </c>
@@ -1361,36 +1363,36 @@
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>5770.6</v>
       </c>
-      <c r="F21" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="3"/>
         <v>5870.6</v>
       </c>
@@ -1403,36 +1405,36 @@
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>5723.3</v>
       </c>
-      <c r="F22" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="3"/>
         <v>5833.3</v>
       </c>
@@ -1445,36 +1447,36 @@
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>5676.0000000000009</v>
       </c>
-      <c r="F23" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
         <v>5796.0000000000009</v>
       </c>
@@ -1487,36 +1489,36 @@
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>5628.7000000000007</v>
       </c>
-      <c r="F24" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f t="shared" si="3"/>
         <v>5758.7000000000007</v>
       </c>
@@ -1529,36 +1531,36 @@
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>5581.4000000000005</v>
       </c>
-      <c r="F25" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f t="shared" si="3"/>
         <v>5721.4000000000005</v>
       </c>
@@ -1571,36 +1573,36 @@
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>5534.1</v>
       </c>
-      <c r="F26" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f t="shared" si="3"/>
         <v>5684.1</v>
       </c>
@@ -1613,36 +1615,36 @@
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>5486.8</v>
       </c>
-      <c r="F27" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f t="shared" si="3"/>
         <v>5646.8</v>
       </c>
@@ -1655,36 +1657,36 @@
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>5439.5000000000009</v>
       </c>
-      <c r="F28" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
         <v>5609.5000000000009</v>
       </c>
@@ -1697,36 +1699,36 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>5392.2000000000007</v>
       </c>
-      <c r="F29" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f t="shared" si="3"/>
         <v>5572.2000000000007</v>
       </c>
@@ -1739,36 +1741,36 @@
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>5344.9000000000005</v>
       </c>
-      <c r="F30" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
         <v>5534.9000000000005</v>
       </c>
@@ -1781,36 +1783,36 @@
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>5297.6</v>
       </c>
-      <c r="F31" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <f t="shared" si="3"/>
         <v>5497.6</v>
       </c>
@@ -1823,36 +1825,36 @@
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>5250.3</v>
       </c>
-      <c r="F32" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <f t="shared" si="3"/>
         <v>5460.3</v>
       </c>
@@ -1865,36 +1867,36 @@
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>5203.0000000000009</v>
       </c>
-      <c r="F33" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <f t="shared" si="3"/>
         <v>5423.0000000000009</v>
       </c>
@@ -1907,36 +1909,36 @@
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>5155.7000000000007</v>
       </c>
-      <c r="F34" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <f t="shared" si="3"/>
         <v>5385.7000000000007</v>
       </c>
@@ -1949,36 +1951,36 @@
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>2554.2000000000003</v>
       </c>
-      <c r="F35" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <f t="shared" si="3"/>
         <v>2794.2000000000003</v>
       </c>
@@ -1991,36 +1993,36 @@
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>2530.5500000000002</v>
       </c>
-      <c r="F36" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <f t="shared" si="3"/>
         <v>2780.55</v>
       </c>
@@ -2033,36 +2035,36 @@
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>2506.9</v>
       </c>
-      <c r="F37" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <f t="shared" si="3"/>
         <v>2766.9</v>
       </c>
@@ -2075,72 +2077,72 @@
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f>D3/2</f>
         <v>47.300000000000004</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>2483.25</v>
       </c>
-      <c r="F38" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <f t="shared" si="3"/>
         <v>2753.25</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>202298</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
         <v>6622.0000000000009</v>
       </c>

--- a/LR3/table_1_86.xlsx
+++ b/LR3/table_1_86.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB5CD9-1245-4164-B825-D1BDB23F3E0F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4A6E8-690D-460A-8EEB-FE9A6A834520}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_86.xlsx
+++ b/LR3/table_1_86.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4A6E8-690D-460A-8EEB-FE9A6A834520}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA04ED-DF75-404A-BAD9-93AE0977DE2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Аллаяров </t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -589,24 +592,24 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -642,12 +645,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -684,12 +687,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -726,12 +729,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -768,12 +771,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -810,12 +813,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -852,12 +855,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -894,12 +897,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -936,54 +939,54 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>94.600000000000009</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>6243.6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>6243.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>94.600000000000009</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>6243.6</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>6243.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -1020,12 +1023,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -1062,12 +1065,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1104,12 +1107,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1146,12 +1149,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1188,12 +1191,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1230,12 +1233,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
@@ -1272,12 +1275,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
@@ -1314,12 +1317,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1356,12 +1359,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1398,12 +1401,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
+      <c r="B22" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1440,12 +1443,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1482,12 +1485,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1524,12 +1527,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1566,12 +1569,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1608,12 +1611,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>31</v>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1650,12 +1653,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1692,12 +1695,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -1734,12 +1737,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
+      <c r="B30" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1776,12 +1779,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1818,12 +1821,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -1860,12 +1863,12 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -1902,12 +1905,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -1944,12 +1947,12 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>39</v>
+      <c r="B35" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -1986,12 +1989,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>40</v>
+      <c r="B36" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
@@ -2028,12 +2031,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
+      <c r="B37" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2070,12 +2073,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
+      <c r="B38" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
